--- a/biology/Médecine/Vaccin_contre_le_choléra/Vaccin_contre_le_choléra.xlsx
+++ b/biology/Médecine/Vaccin_contre_le_choléra/Vaccin_contre_le_choléra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vaccin_contre_le_chol%C3%A9ra</t>
+          <t>Vaccin_contre_le_choléra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin contre le choléra est un vaccin contre le choléra, une maladie infectieuse. Il est listé dans les médicaments essentiels par l'OMS. Il existe actuellement 3 vaccins anticholériques oraux  préqualifiés par l’OMS : Dukoral®, Shanchol™, et Euvichol®. Pour les 3 vaccins, 2 doses doivent être administrées pour obtenir une protection complète . Tous les trois sont des vaccins oraux[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin contre le choléra est un vaccin contre le choléra, une maladie infectieuse. Il est listé dans les médicaments essentiels par l'OMS. Il existe actuellement 3 vaccins anticholériques oraux  préqualifiés par l’OMS : Dukoral®, Shanchol™, et Euvichol®. Pour les 3 vaccins, 2 doses doivent être administrées pour obtenir une protection complète . Tous les trois sont des vaccins oraux. 
 Dukoral® peut être donné à toute personne de plus de 2 ans. Les deux doses doivent être administrées dans un intervalle de 7 jours au minimum et de 6 semaines au maximum. Une troisième dose est nécessaire chez l’enfant de 2 à 5 ans. Dukoral® est principalement utilisé chez les voyageurs. Deux doses de Dukoral® confèrent une protection anticholérique pendant deux ans.
 La composition de Shanchol™ et d’Euvichol® est la même. Ils peuvent être donnés à toute personne de plus d’un an. Il doit y avoir un délai minimum de deux semaines entre chacune des deux doses de ces deux vaccins. Deux doses de Shanchol™ et d’Euvichol® confèrent une protection anticholérique pendant au moins 3 ans, une dose unique assurant une protection à court terme.
-L'efficacité de ces vaccins est de 66 % à 86 % à un horizon entre 4 et 6 mois, de 45 % à 62 % à un horizon d'1 an et de 58 % à 77 % à un horizon de deux ans[1].
+L'efficacité de ces vaccins est de 66 % à 86 % à un horizon entre 4 et 6 mois, de 45 % à 62 % à un horizon d'1 an et de 58 % à 77 % à un horizon de deux ans.
 Aux USA, le vaccin approuvé est le Vaxchora pour les personnes âgées de 2 à 64 ans voyageant dans une zone où le choléra est présent. Le vaccin, une dose unique prise par voie orale, doit être administré au moins 10 jours avant le voyage. 
-Le fabricant de Vaxchora rapporte que le vaccin réduit le risque de diarrhée modérée et sévère chez les personnes âgées de 18 à 45 ans de 90 % 10 jours après la vaccination et de 80 % après 3 mois. On ne sait pas combien de temps dure la protection au-delà de 3 mois [2].
+Le fabricant de Vaxchora rapporte que le vaccin réduit le risque de diarrhée modérée et sévère chez les personnes âgées de 18 à 45 ans de 90 % 10 jours après la vaccination et de 80 % après 3 mois. On ne sait pas combien de temps dure la protection au-delà de 3 mois .
 </t>
         </is>
       </c>
